--- a/mult op codes.xlsx
+++ b/mult op codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://prodduke-my.sharepoint.com/personal/nrg23_duke_edu/Documents/Classes/2023 Spring/ECE 350/CPU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{B0279C6D-0CF0-423B-BB3B-5F4FB36F39C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB642E7E-0F94-4AFF-9A45-5DEEEB9FA506}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{B0279C6D-0CF0-423B-BB3B-5F4FB36F39C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4240B7D1-C163-4261-ADE6-3FF949C824E8}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{51E698F5-D9FF-4CD9-8A7D-7F9E23A24E8F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>opcode</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>shiftMultiplicand</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>01</t>
   </si>
 </sst>
 </file>
@@ -130,9 +139,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -150,6 +158,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -452,24 +464,26 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="1" max="2" width="13.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="16.88671875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -480,111 +494,156 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
+      <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="E6">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D11">
-        <v>0</v>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/mult op codes.xlsx
+++ b/mult op codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://prodduke-my.sharepoint.com/personal/nrg23_duke_edu/Documents/Classes/2023 Spring/ECE 350/CPU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{B0279C6D-0CF0-423B-BB3B-5F4FB36F39C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4240B7D1-C163-4261-ADE6-3FF949C824E8}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{B0279C6D-0CF0-423B-BB3B-5F4FB36F39C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A5F9E5C-71A3-4E90-8126-07EA079A0643}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{51E698F5-D9FF-4CD9-8A7D-7F9E23A24E8F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{51E698F5-D9FF-4CD9-8A7D-7F9E23A24E8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>opcode</t>
   </si>
@@ -464,7 +464,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,8 +622,8 @@
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2">
-        <v>0</v>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
